--- a/index_layer.xlsx
+++ b/index_layer.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE7"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,47 +676,27 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>link_url</t>
+          <t>new_big</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>new_big</t>
+          <t>notes</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>precent_from_big_index</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>plan_name</t>
+          <t>precent_till_2040</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>plan_num</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>precent_from_big_index</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>precent_till_2040</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
           <t>source</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
         </is>
       </c>
     </row>
@@ -865,40 +845,20 @@
       <c r="AV2" t="n">
         <v>34546.5013593521</v>
       </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>https://mavat.iplan.gov.il/SV4/1/1000947251/310https://mavat.iplan.gov.il/SV4/1/1000886477/310https://mavat.iplan.gov.il/SV4/1/1000893491/310</t>
-        </is>
+      <c r="AW2" t="n">
+        <v>2.890722167817271</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.890722167817271</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>שערי ציוןשער דרום - דרך חברון פינת דרך משה ברעם, א.ת תלפיותדרך חברון ירושלים, מתחם אמת המים.</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>101-0657601101-0547992101-0560805</t>
-        </is>
-      </c>
-      <c r="BB2" t="n">
         <v>2.795468375242563</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="AZ2" t="n">
         <v>1</v>
       </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>מאושרבבנייהמאושר</t>
-        </is>
+      <c r="BA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1047,35 +1007,19 @@
         <v>67294.65756817616</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>0.9861908637699158</v>
       </c>
       <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
         <v>0.9861908637699158</v>
       </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>חניון נצבא</t>
-        </is>
+      <c r="AZ3" t="n">
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>999</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.9861908637699158</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>רעיוני</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1223,40 +1167,20 @@
       <c r="AV4" t="n">
         <v>64823.98807657132</v>
       </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>https://mavat.iplan.gov.il/SV4/1/1000947251/310https://mavat.iplan.gov.il/SV4/1/1000947247/310</t>
-        </is>
+      <c r="AW4" t="n">
+        <v>1.997741224167684</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.997741224167684</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>שערי ציוןסטריפ דרך חברון ירושלים - מתחם שימושים מעורבים על ציר רק"ל</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>101-0657601101-0657593</t>
-        </is>
-      </c>
-      <c r="BB4" t="n">
         <v>1.092994345911131</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="AZ4" t="n">
         <v>1</v>
       </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>מאושרבהכנה</t>
-        </is>
+      <c r="BA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1405,35 +1329,19 @@
         <v>231733.5172108308</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>גבעת המטוס - מגזר כללי</t>
-        </is>
+      <c r="AZ5" t="n">
+        <v>0.75</v>
       </c>
       <c r="BA5" t="n">
-        <v>14295</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>בבנייה</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1581,40 +1489,20 @@
       <c r="AV6" t="n">
         <v>69759.73570169706</v>
       </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>https://mavat.iplan.gov.il/SV4/1/1000947247/310</t>
-        </is>
+      <c r="AW6" t="n">
+        <v>0.9999415957970218</v>
       </c>
       <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
         <v>0.9999415957970218</v>
       </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>סטריפ דרך חברון ירושלים - מתחם שימושים מעורבים על ציר רק"ל</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>101-0657593</t>
-        </is>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.9999415957970218</v>
-      </c>
-      <c r="BC6" t="n">
+      <c r="AZ6" t="n">
         <v>0.5</v>
       </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>בהכנה</t>
-        </is>
+      <c r="BA6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1762,40 +1650,20 @@
       <c r="AV7" t="n">
         <v>19020.02301349173</v>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>https://mavat.iplan.gov.il/SV4/1/1005048238/310https://mavat.iplan.gov.il/SV4/1/1005234152/310</t>
-        </is>
+      <c r="AW7" t="n">
+        <v>1.96044828911905</v>
       </c>
       <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
         <v>1.96044828911905</v>
       </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>הגדלת זכויות בניה באזור מגורים, בית צפאפא, ירושליםתוספת שטחי בניה וקומות תת קרקעיות ושנוי בנוי, בית צפאפא,ירושלים</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>101-0822452101-1103571</t>
-        </is>
-      </c>
-      <c r="BB7" t="n">
-        <v>1.96044828911905</v>
-      </c>
-      <c r="BC7" t="n">
+      <c r="AZ7" t="n">
         <v>1</v>
       </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>בדיקת תנאי סף-קיום תנאי סףהפקדה</t>
-        </is>
+      <c r="BA7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
